--- a/Experimentos/Not Police/Controle dos experimentos NP.xlsx
+++ b/Experimentos/Not Police/Controle dos experimentos NP.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="2805" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2 clientes" sheetId="1" r:id="rId1"/>
+    <sheet name="1 Cliente" sheetId="2" r:id="rId1"/>
+    <sheet name="2 clientes" sheetId="1" r:id="rId2"/>
+    <sheet name="3 clientes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,8 +61,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -87,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -95,6 +106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,10 +387,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,8 +493,37 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -478,5 +531,18 @@
     <mergeCell ref="B8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>